--- a/v0.7.1/StructureDefinition-Coverage.xlsx
+++ b/v0.7.1/StructureDefinition-Coverage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Insurance or medical plan or a payment agreement</t>
@@ -1543,16 +1547,16 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1617,7 +1621,7 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>7</v>
@@ -1637,10 +1641,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1651,7 +1655,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1660,19 +1664,19 @@
         <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1722,13 +1726,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1757,10 +1761,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1771,7 +1775,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>76</v>
@@ -1780,16 +1784,16 @@
         <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1840,19 +1844,19 @@
         <v>76</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1875,10 +1879,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1889,28 +1893,28 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1960,19 +1964,19 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1995,10 +1999,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2009,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>76</v>
@@ -2021,16 +2025,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2056,13 +2060,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2080,19 +2084,19 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
@@ -2115,21 +2119,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -2141,16 +2145,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2200,25 +2204,25 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2235,14 +2239,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2261,16 +2265,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2320,7 +2324,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2338,7 +2342,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2355,14 +2359,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2381,16 +2385,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2440,7 +2444,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2452,13 +2456,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2475,14 +2479,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2495,25 +2499,25 @@
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>76</v>
@@ -2562,7 +2566,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2574,13 +2578,13 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2597,10 +2601,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2608,7 +2612,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -2620,22 +2624,22 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2684,7 +2688,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2696,33 +2700,33 @@
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2730,34 +2734,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2782,13 +2786,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2806,28 +2810,28 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>76</v>
@@ -2841,10 +2845,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2855,7 +2859,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2864,20 +2868,20 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2902,13 +2906,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2926,19 +2930,19 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -2947,13 +2951,13 @@
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>76</v>
@@ -2961,10 +2965,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2975,7 +2979,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2984,22 +2988,22 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3048,19 +3052,19 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3069,24 +3073,24 @@
         <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3097,7 +3101,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3106,22 +3110,22 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3170,45 +3174,45 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AP15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3219,7 +3223,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3228,20 +3232,20 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3290,19 +3294,19 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3311,24 +3315,24 @@
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3336,10 +3340,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3348,20 +3352,20 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3410,45 +3414,45 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3459,7 +3463,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3468,22 +3472,22 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3532,19 +3536,19 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3556,10 +3560,10 @@
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>76</v>
@@ -3567,10 +3571,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3581,7 +3585,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3593,19 +3597,19 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3630,13 +3634,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3654,19 +3658,19 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
@@ -3678,7 +3682,7 @@
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3703,7 +3707,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3712,20 +3716,20 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3774,34 +3778,34 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>76</v>
@@ -3809,10 +3813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3820,7 +3824,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -3832,22 +3836,22 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3896,10 +3900,10 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
@@ -3908,7 +3912,7 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
@@ -3917,24 +3921,24 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3957,19 +3961,19 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4018,7 +4022,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4030,7 +4034,7 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -4053,10 +4057,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4067,7 +4071,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4079,13 +4083,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4136,13 +4140,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -4154,7 +4158,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4171,14 +4175,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4197,16 +4201,16 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4256,7 +4260,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4268,13 +4272,13 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4291,14 +4295,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4311,25 +4315,25 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4378,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4390,13 +4394,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4413,10 +4417,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4424,10 +4428,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4436,20 +4440,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4474,13 +4478,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4498,19 +4502,19 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4533,10 +4537,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4544,10 +4548,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4556,22 +4560,22 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4620,19 +4624,19 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
@@ -4644,21 +4648,21 @@
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4669,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4678,20 +4682,20 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4740,45 +4744,45 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4789,7 +4793,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4798,20 +4802,20 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4860,19 +4864,19 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4887,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>76</v>
@@ -4895,10 +4899,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4909,7 +4913,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4918,20 +4922,20 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4980,19 +4984,19 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5015,14 +5019,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5041,19 +5045,19 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5102,7 +5106,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5114,7 +5118,7 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5137,10 +5141,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5151,7 +5155,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5163,13 +5167,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5220,13 +5224,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -5238,7 +5242,7 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5255,14 +5259,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5281,16 +5285,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5340,7 +5344,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5352,13 +5356,13 @@
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5375,14 +5379,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5395,25 +5399,25 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5462,7 +5466,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5474,13 +5478,13 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5497,10 +5501,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5511,7 +5515,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5520,22 +5524,22 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5560,13 +5564,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5584,19 +5588,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5619,10 +5623,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5630,10 +5634,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5642,22 +5646,22 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5706,19 +5710,19 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5730,21 +5734,21 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5767,17 +5771,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5826,7 +5830,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5838,7 +5842,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5861,10 +5865,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5875,7 +5879,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5887,13 +5891,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5944,13 +5948,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -5962,7 +5966,7 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5979,14 +5983,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6005,16 +6009,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6064,7 +6068,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6076,13 +6080,13 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -6099,14 +6103,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6119,25 +6123,25 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6186,7 +6190,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6198,13 +6202,13 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6221,10 +6225,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6232,10 +6236,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6244,20 +6248,20 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6282,13 +6286,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6306,19 +6310,19 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6341,10 +6345,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6355,7 +6359,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6364,20 +6368,20 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6426,19 +6430,19 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6461,10 +6465,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6475,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6487,19 +6491,19 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6548,19 +6552,19 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6583,10 +6587,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6609,17 +6613,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6668,7 +6672,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6680,25 +6684,25 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
